--- a/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/Backlog_G5_Caicedo_Cadena_Leiva_v2.0.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/Backlog_G5_Caicedo_Cadena_Leiva_v2.0.xlsx
@@ -5,19 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C767564-81DB-4E95-909C-AD2D1F1ACDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEEEAE-DE47-42C4-89D7-8390304492B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="sprint1" sheetId="3" r:id="rId3"/>
     <sheet name="sprint2" sheetId="5" r:id="rId4"/>
-    <sheet name="burdonchart" sheetId="4" r:id="rId5"/>
+    <sheet name="Burdonchart_Sprint0" sheetId="6" r:id="rId5"/>
+    <sheet name="Burdonchart_Sprint1" sheetId="7" r:id="rId6"/>
+    <sheet name="Burdonchart_Sprint2" sheetId="8" r:id="rId7"/>
+    <sheet name="burdonchart" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$H$220</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -350,6 +353,18 @@
   <si>
     <t>REQ008-2</t>
   </si>
+  <si>
+    <t>Dentro del sprint 0 vemos que hemos trabajado de manera rapida, es deir que hemos estado siempre por debajo del tiempo estimado pero al ultimo vemos que nos demorado en concluir el sprint ya que acabamos en el tiempo estimado.</t>
+  </si>
+  <si>
+    <t>Como se puede ver dentro del sprint 1 vemos que se tuvo un retraso, ya que tuvimos problemas con la base de datos y nos demoramos mas de lo estimado.</t>
+  </si>
+  <si>
+    <t>Como se puede observar vemos que existe un retraso dentro del sprint 1 ya que se tuvo problemas con la base de datos por lo que genero una demora mas extendida de lo estblecido pero con el paso de los sprint vemos que se pudo solventar ese tiempo, ya que en el sprint 2 y ultimo se estuvo trabajando de manera mas rapida de lo esperado y como se observa se logro concluir el proyecto en menos tiempo de lo planificcado.</t>
+  </si>
+  <si>
+    <t>Y por ultimo tenemos el sprint 2 el cual se puede observar al igual que el sprint 0 siempre nos mantuvimos por debajo del tiempo esperado es decir que fuimos mas rapido de lo que teniamos pensado y eso se vera reflejado en el burdonchart unido.</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,14 +601,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -626,6 +635,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,6 +696,801 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint0!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60EA-4ED9-96FC-D85DD976B7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint0!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60EA-4ED9-96FC-D85DD976B7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1541694400"/>
+        <c:axId val="1531084227"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541694400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531084227"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1531084227"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541694400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint1!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F60-4EFD-A3DB-E5FBFBA5A4BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint1!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F60-4EFD-A3DB-E5FBFBA5A4BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1541694400"/>
+        <c:axId val="1531084227"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541694400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531084227"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1531084227"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541694400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint2!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-410E-4EAB-B976-1D3CC80F9D14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Burdonchart_Sprint2!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-410E-4EAB-B976-1D3CC80F9D14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1541694400"/>
+        <c:axId val="1531084227"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541694400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531084227"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1531084227"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541694400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -921,25 +1736,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Roboto"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -953,6 +1749,120 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1903F3-801E-497B-BD63-1677B2A7D0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4658E0-1C7B-43C3-9DEE-1447FCAC9233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482044F7-0FCE-4853-8A71-67AFF33D2EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -989,6 +1899,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98B7CB7D-B764-4C99-87AF-02158C7CD925}" name="Table_13" displayName="Table_13" ref="I3:I8" headerRowCount="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{887E669F-8A78-4B36-9EDA-5E5DC3D6DD3D}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F96AC3E-1A79-4C2A-80AD-239C98F6D716}" name="Table_14" displayName="Table_14" ref="I4:I10" headerRowCount="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{17B5BA6C-77BD-4C63-B955-A0F893CD7218}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2EF8531C-37F3-45AB-B349-01D436AF2AE9}" name="Table_15" displayName="Table_15" ref="I4:I12" headerRowCount="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{FF7CF7BF-2CBA-4B2D-A448-5BD3E2C57E93}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I23" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
@@ -1205,8 +2142,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2621,27 +3558,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="58" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+    <row r="4" spans="2:9" s="52" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="63" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2665,12 +3602,12 @@
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2683,12 +3620,12 @@
       <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
@@ -2701,12 +3638,12 @@
       <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
@@ -2717,10 +3654,10 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -2751,27 +3688,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="58" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+    <row r="11" spans="2:9" s="52" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2795,12 +3732,12 @@
       <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="2" t="s">
         <v>62</v>
       </c>
@@ -2813,12 +3750,12 @@
       <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="2" t="s">
         <v>62</v>
       </c>
@@ -2829,10 +3766,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2887,10 +3824,10 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="10"/>
@@ -2906,10 +3843,10 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="10"/>
@@ -2925,10 +3862,10 @@
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="10"/>
@@ -3020,10 +3957,10 @@
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="10"/>
@@ -3039,10 +3976,10 @@
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="10"/>
@@ -3058,10 +3995,10 @@
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="10"/>
@@ -3153,10 +4090,10 @@
     </row>
     <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="10"/>
@@ -3172,10 +4109,10 @@
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="10"/>
@@ -3191,10 +4128,10 @@
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="10"/>
@@ -3210,10 +4147,10 @@
     </row>
     <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -3286,10 +4223,10 @@
     </row>
     <row r="40" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="10"/>
@@ -3305,10 +4242,10 @@
     </row>
     <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="10"/>
@@ -3324,10 +4261,10 @@
     </row>
     <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -3400,10 +4337,10 @@
     </row>
     <row r="46" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="10"/>
@@ -3419,10 +4356,10 @@
     </row>
     <row r="47" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="10"/>
@@ -3438,10 +4375,10 @@
     </row>
     <row r="48" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="10"/>
@@ -3533,10 +4470,10 @@
     </row>
     <row r="53" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="10"/>
@@ -3552,10 +4489,10 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="10"/>
@@ -3571,10 +4508,10 @@
     </row>
     <row r="55" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="10"/>
@@ -3685,10 +4622,10 @@
     </row>
     <row r="61" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="10"/>
@@ -3723,10 +4660,10 @@
     </row>
     <row r="63" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -3799,10 +4736,10 @@
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="10"/>
@@ -3837,10 +4774,10 @@
     </row>
     <row r="69" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -3913,10 +4850,10 @@
     </row>
     <row r="73" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="10"/>
@@ -3951,10 +4888,10 @@
     </row>
     <row r="75" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="10"/>
@@ -4046,10 +4983,10 @@
     </row>
     <row r="80" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="10"/>
@@ -4065,10 +5002,10 @@
     </row>
     <row r="81" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="10"/>
@@ -4084,10 +5021,10 @@
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="10"/>
@@ -5075,28 +6012,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C67:F67"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
@@ -5110,6 +6025,28 @@
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="C80:F80"/>
     <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5123,7 +6060,7 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5133,7 +6070,7 @@
     <col min="6" max="6" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5145,7 +6082,7 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -5157,7 +6094,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -5185,33 +6122,33 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
@@ -5229,7 +6166,7 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>64</v>
@@ -5245,17 +6182,17 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5264,12 +6201,12 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5280,7 +6217,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="18" t="s">
         <v>0</v>
@@ -5308,33 +6245,33 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="58" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="60" t="s">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="60" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
@@ -5352,17 +6289,17 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="19" t="s">
         <v>62</v>
       </c>
@@ -5372,17 +6309,17 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="19" t="s">
         <v>62</v>
       </c>
@@ -5392,31 +6329,31 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="20"/>
       <c r="H15" s="14"/>
       <c r="I15" s="22"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="23" t="s">
         <v>0</v>
@@ -5444,33 +6381,33 @@
       </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" s="58" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60" t="s">
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="60" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="14"/>
       <c r="C19" s="24" t="s">
@@ -5488,17 +6425,17 @@
       </c>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="19" t="s">
         <v>73</v>
       </c>
@@ -5508,17 +6445,17 @@
       </c>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="19" t="s">
         <v>73</v>
       </c>
@@ -5528,7 +6465,7 @@
       </c>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5540,7 +6477,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -5552,7 +6489,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -5564,67 +6501,67 @@
       <c r="I24" s="9"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="27"/>
       <c r="H25" s="8"/>
       <c r="I25" s="10"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="27"/>
       <c r="H26" s="8"/>
       <c r="I26" s="10"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="27"/>
       <c r="H27" s="8"/>
       <c r="I27" s="27"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="31"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="31"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -5636,7 +6573,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -5648,7 +6585,7 @@
       <c r="I31" s="33"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -5660,7 +6597,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="29"/>
       <c r="C33" s="34"/>
@@ -5672,55 +6609,55 @@
       <c r="I33" s="34"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="31"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="29"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="31"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="29"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="31"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="29"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -5732,7 +6669,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -5744,7 +6681,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -5755,7 +6692,7 @@
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -5766,7 +6703,7 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -5777,7 +6714,7 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -5788,7 +6725,7 @@
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -5799,7 +6736,7 @@
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -5810,7 +6747,7 @@
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -5821,7 +6758,7 @@
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -5834,11 +6771,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
@@ -5850,6 +6782,11 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5860,14 +6797,15 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5897,26 +6835,26 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="50" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5958,12 +6896,12 @@
       <c r="B7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="17" t="s">
         <v>73</v>
       </c>
@@ -5975,12 +6913,12 @@
       <c r="B8" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="17" t="s">
         <v>73</v>
       </c>
@@ -6035,27 +6973,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="58" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="2:9" s="52" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="50" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6079,12 +7017,12 @@
       <c r="B14" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="17" t="s">
         <v>73</v>
       </c>
@@ -6097,12 +7035,12 @@
       <c r="B15" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="17" t="s">
         <v>73</v>
       </c>
@@ -6115,12 +7053,12 @@
       <c r="B16" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="17" t="s">
         <v>73</v>
       </c>
@@ -6131,20 +7069,20 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="20"/>
       <c r="H17" s="46"/>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
@@ -6176,26 +7114,26 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="50" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6219,12 +7157,12 @@
       <c r="B22" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="17" t="s">
         <v>56</v>
       </c>
@@ -6237,12 +7175,12 @@
       <c r="B23" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="17" t="s">
         <v>56</v>
       </c>
@@ -6278,14 +7216,2337 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9726B0F9-D520-4E62-B302-9A99D6C7A19C}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="39">
+        <v>2</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <v>2</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="42">
+        <f>SUM(C3:C8)</f>
+        <v>7</v>
+      </c>
+      <c r="D10" s="42">
+        <f>C10-SUM(D3:D8)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="42">
+        <f>D10-SUM(E3:E8)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="42">
+        <f>E10-SUM(F3:F8)</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="42">
+        <f>F10-SUM(G3:G8)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="42">
+        <f>G10-SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="43">
+        <f>SUM(C3:C8)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="43">
+        <f>C11-(SUM(C3:C8)/5)</f>
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="43">
+        <f>D11-(SUM(C3:C8)/5)</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F11" s="43">
+        <f>E11-(SUM(C3:C8)/5)</f>
+        <v>2.7999999999999994</v>
+      </c>
+      <c r="G11" s="43">
+        <f>F11-(SUM(C3:C8)/5)</f>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="H11" s="43">
+        <f>G11-(SUM(C3:C8)/5)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K15:O29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A26E9E4-5D56-4A0F-86A2-E17615474512}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
+        <v>2</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <v>1</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="38">
+        <v>2</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39">
+        <v>1</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="42">
+        <f>SUM(C4:C10)</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="42">
+        <f>C12-SUM(D4:D10)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="42">
+        <f>D12-SUM(E4:E10)</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="42">
+        <f>E12-SUM(F4:F10)</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="42">
+        <f>F12-SUM(G4:G10)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="42">
+        <f>G12-SUM(H4:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="43">
+        <f>SUM(C4:C10)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="43">
+        <f>C13-(SUM(C4:C10)/5)</f>
+        <v>7.2</v>
+      </c>
+      <c r="E13" s="43">
+        <f>D13-(SUM(C4:C10)/5)</f>
+        <v>5.4</v>
+      </c>
+      <c r="F13" s="43">
+        <f>E13-(SUM(C4:C10)/5)</f>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="G13" s="43">
+        <f>F13-(SUM(C4:C10)/5)</f>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="H13" s="43">
+        <f>G13-(SUM(C4:C10)/5)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K17:O31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F7E363-FEA9-4E1C-987F-04B69CB8A9A4}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49">
+        <v>1</v>
+      </c>
+      <c r="I4" s="60">
+        <v>1</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="59">
+        <v>2</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="60">
+        <v>2</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="59">
+        <v>2</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
+        <v>2</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="59">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
+        <v>2</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60">
+        <v>1</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="59">
+        <v>2</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>2</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
+        <v>1</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="42">
+        <f>SUM(C4:C12)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="42">
+        <f>C14-SUM(D4:D12)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="42">
+        <f>D14-SUM(E4:E12)</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="42">
+        <f>E14-SUM(F4:F12)</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="42">
+        <f>F14-SUM(G4:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <f>G14-SUM(H4:H12)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="43">
+        <f>SUM(C4:C12)</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="43">
+        <f>C15-(SUM(C4:C12)/5)</f>
+        <v>9.6</v>
+      </c>
+      <c r="E15" s="43">
+        <f>D15-(SUM(C4:C12)/5)</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F15" s="43">
+        <f>E15-(SUM(C4:C12)/5)</f>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="G15" s="43">
+        <f>F15-(SUM(C4:C12)/5)</f>
+        <v>2.399999999999999</v>
+      </c>
+      <c r="H15" s="43">
+        <f>G15-(SUM(C4:C12)/5)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K19:O33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I992"/>
+  <dimension ref="B1:O992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6611,7 +9872,7 @@
       <c r="B15" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="59">
         <v>1</v>
       </c>
       <c r="D15" s="44">
@@ -6629,7 +9890,7 @@
       <c r="H15" s="44">
         <v>1</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="60">
         <v>1</v>
       </c>
     </row>
@@ -6637,7 +9898,7 @@
       <c r="B16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="59">
         <v>2</v>
       </c>
       <c r="D16" s="44">
@@ -6655,15 +9916,15 @@
       <c r="H16" s="44">
         <v>0</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="60">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="59">
         <v>2</v>
       </c>
       <c r="D17" s="44">
@@ -6681,15 +9942,15 @@
       <c r="H17" s="44">
         <v>0</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="60">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="59">
         <v>2</v>
       </c>
       <c r="D18" s="44">
@@ -6707,15 +9968,15 @@
       <c r="H18" s="44">
         <v>0</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="60">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="59">
         <v>1</v>
       </c>
       <c r="D19" s="44">
@@ -6733,15 +9994,15 @@
       <c r="H19" s="44">
         <v>0</v>
       </c>
-      <c r="I19" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="59">
         <v>1</v>
       </c>
       <c r="D20" s="44">
@@ -6759,15 +10020,15 @@
       <c r="H20" s="44">
         <v>0</v>
       </c>
-      <c r="I20" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="59">
         <v>2</v>
       </c>
       <c r="D21" s="44">
@@ -6785,15 +10046,15 @@
       <c r="H21" s="44">
         <v>0</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="60">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="59">
         <v>1</v>
       </c>
       <c r="D22" s="44">
@@ -6811,11 +10072,11 @@
       <c r="H22" s="44">
         <v>1</v>
       </c>
-      <c r="I22" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="40"/>
       <c r="D23" s="44"/>
@@ -6825,8 +10086,8 @@
       <c r="H23" s="44"/>
       <c r="I23" s="37"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41" t="s">
         <v>82</v>
       </c>
@@ -6855,7 +10116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41" t="s">
         <v>83</v>
       </c>
@@ -6884,28 +10145,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+    </row>
+    <row r="33" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+    </row>
+    <row r="34" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+    </row>
+    <row r="35" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+    </row>
+    <row r="36" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+    </row>
+    <row r="37" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+    </row>
+    <row r="38" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+    </row>
+    <row r="39" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+    </row>
+    <row r="40" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+    </row>
+    <row r="41" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+    </row>
+    <row r="42" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+    </row>
+    <row r="43" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+    </row>
+    <row r="44" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+    </row>
+    <row r="45" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7851,6 +11204,9 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K30:O44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
